--- a/ทดลองโปรแกรม.xlsx
+++ b/ทดลองโปรแกรม.xlsx
@@ -943,15 +943,15 @@
       </c>
       <c r="K3" s="5">
         <f>R3+W3+AB3+AG3+AL3+AQ3</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L3" s="14">
         <f>S3+X3+AC3+AH3+AM3+AR3</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M3" s="15">
         <f>50+(F3*8)+(G3*6)+(H3*4)+(L3/100)</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N3" s="5" t="str">
         <f>IF(M3&gt;=80,"ทอง",IF(M3&gt;=70,"เงิน",IF(M3&gt;=60,"ทองแดง",IF(M3&lt;60,"ชมเชย"))))</f>
@@ -965,15 +965,15 @@
         <v>300</v>
       </c>
       <c r="Q3" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R3" s="4">
         <f>P3-Q3</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S3" s="5">
         <f>IF(R3&gt;250, "250", IF(R3&lt;-250,"-250",R3))</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T3" s="4" t="str">
         <f>IF(W3&gt;0, "W",IF(W3=0, "T", "L"))</f>
@@ -1101,19 +1101,19 @@
       </c>
       <c r="J4" s="5">
         <f>P4+U4+Z4+AE4+AJ4+AO4</f>
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K4" s="5">
         <f>R4+W4+AB4+AG4+AL4+AQ4</f>
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L4" s="14">
         <f>S4+X4+AC4+AH4+AM4+AR4</f>
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="M4" s="15">
         <f>50+(F4*8)+(G4*6)+(H4*4)+(L4/100)</f>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N4" s="5" t="str">
         <f>IF(M4&gt;=80,"ทอง",IF(M4&gt;=70,"เงิน",IF(M4&gt;=60,"ทองแดง",IF(M4&lt;60,"ชมเชย"))))</f>
@@ -1124,18 +1124,18 @@
         <v>L</v>
       </c>
       <c r="P4" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="4">
         <v>300</v>
       </c>
       <c r="R4" s="4">
         <f>P4-Q4</f>
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S4" s="5">
         <f>IF(R4&gt;250, "250", IF(R4&lt;-250,"-250",R4))</f>
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T4" s="4" t="str">
         <f>IF(W4&gt;0, "W",IF(W4=0, "T", "L"))</f>
